--- a/igem2017/sdin/tools/preload/works/circuits/3.xlsx
+++ b/igem2017/sdin/tools/preload/works/circuits/3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7155" windowHeight="2955" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7155" windowHeight="2955" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3083,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,11 +3291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3540,7 +3540,12 @@
       <c r="D15" t="s">
         <v>383</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -3611,10 +3616,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -3952,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,7 +4751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -5159,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -6104,7 +6109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,7 +6537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6996,7 +7001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7800,7 +7805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8528,7 +8533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
